--- a/public/econometrics_questions.xlsx
+++ b/public/econometrics_questions.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrykostern/Documents/code/applied-econ/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BF9D5-B314-C447-80FD-354DA86A2BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Panel Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -553,8 +559,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,13 +623,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -661,7 +675,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -695,6 +709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -729,9 +744,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -904,14 +920,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="71" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -957,7 +978,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1185,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1277,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1300,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1323,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1369,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1371,7 +1392,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1394,7 +1415,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1438,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1461,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1463,7 +1484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1622,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>

--- a/public/econometrics_questions.xlsx
+++ b/public/econometrics_questions.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrykostern/Documents/code/applied-econ/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BF9D5-B314-C447-80FD-354DA86A2BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09782374-3AD7-FD4D-9909-467C8290FDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Panel Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Recap 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
   <si>
     <t>Question</t>
   </si>
@@ -43,517 +43,544 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>Suppose the true model is yi = βxi + γqi + ui, but you omit qi. Which assumption is most likely violated?</t>
-  </si>
-  <si>
-    <t>In the model above, if Cov(xi, qi) &gt; 0 and γ &gt; 0, the OLS estimate of β will be:</t>
-  </si>
-  <si>
-    <t>Which condition eliminates omitted variable bias?</t>
-  </si>
-  <si>
-    <t>Auxiliary regression of qi = δ xi + wi is used because:</t>
-  </si>
-  <si>
-    <t>If γ &lt; 0 and Cov(xi,qi) &gt; 0, the OLS estimate of β will be:</t>
-  </si>
-  <si>
-    <t>Which of the following is not a solution to omitted variable bias?</t>
-  </si>
-  <si>
-    <t>Omitted variable bias affects:</t>
-  </si>
-  <si>
-    <t>In the education-wage example, why is α &gt; β likely?</t>
-  </si>
-  <si>
-    <t>Which of the following is the formula for the bias in α?</t>
-  </si>
-  <si>
-    <t>Which of these does not help identify causal effects with omitted variables?</t>
-  </si>
-  <si>
-    <t>Which is a key assumption of DiD?</t>
-  </si>
-  <si>
-    <t>DiD estimate =</t>
-  </si>
-  <si>
-    <t>Which regression specification represents DiD?</t>
-  </si>
-  <si>
-    <t>What is δ in the DiD regression?</t>
-  </si>
-  <si>
-    <t>When can DiD fail?</t>
-  </si>
-  <si>
-    <t>Which data is sufficient for DiD?</t>
-  </si>
-  <si>
-    <t>What happens if a policy change affects both treatment and control groups differently for reasons unrelated to treatment?</t>
-  </si>
-  <si>
-    <t>The standard error for DiD is best estimated using:</t>
-  </si>
-  <si>
-    <t>Which problem can DiD help address?</t>
-  </si>
-  <si>
-    <t>In a DiD setup, if the treatment group already had a different pre-trend, the estimate is:</t>
-  </si>
-  <si>
-    <t>Panel data is:</t>
-  </si>
-  <si>
-    <t>Composite error in panel data is:</t>
-  </si>
-  <si>
-    <t>Fixed effects eliminate:</t>
-  </si>
-  <si>
-    <t>Why can’t FE estimate the effect of gender?</t>
-  </si>
-  <si>
-    <t>Which estimator uses only within-unit variation?</t>
-  </si>
-  <si>
-    <t>Random effects requires which assumption?</t>
-  </si>
-  <si>
-    <t>If E(x_it c_i) ≠ 0, which estimator is consistent?</t>
-  </si>
-  <si>
-    <t>When is the panel unbalanced?</t>
-  </si>
-  <si>
-    <t>Which assumption must hold for FE to be consistent?</t>
-  </si>
-  <si>
-    <t>Why do we need variation in x over time in FE?</t>
-  </si>
-  <si>
-    <t>E(xi ui) = 0</t>
-  </si>
-  <si>
-    <t>Unbiased</t>
-  </si>
-  <si>
-    <t>γ = 0</t>
-  </si>
-  <si>
-    <t>It directly estimates γ</t>
-  </si>
-  <si>
-    <t>Biased upwards</t>
-  </si>
-  <si>
-    <t>Include the omitted variable</t>
-  </si>
-  <si>
-    <t>Consistency</t>
-  </si>
-  <si>
-    <t>Measurement error in x</t>
-  </si>
-  <si>
-    <t>γ δ</t>
-  </si>
-  <si>
-    <t>DiD estimation</t>
-  </si>
-  <si>
-    <t>Random assignment</t>
-  </si>
-  <si>
-    <t>(Treated after – Treated before) + (Control after – Control before)</t>
-  </si>
-  <si>
-    <t>y = α + β Treat + γ After + u</t>
-  </si>
-  <si>
-    <t>Change in control group</t>
-  </si>
-  <si>
-    <t>When groups are large</t>
-  </si>
-  <si>
-    <t>One time period</t>
-  </si>
-  <si>
-    <t>Biases DiD</t>
-  </si>
-  <si>
-    <t>Difference in sample sizes</t>
-  </si>
-  <si>
-    <t>Time-varying unobservables</t>
-  </si>
-  <si>
-    <t>Consistent</t>
-  </si>
-  <si>
-    <t>Only cross-sectional</t>
-  </si>
-  <si>
-    <t>u_it</t>
-  </si>
-  <si>
-    <t>Time-varying omitted variables</t>
-  </si>
-  <si>
-    <t>It is endogenous</t>
-  </si>
-  <si>
-    <t>Pooled OLS</t>
-  </si>
-  <si>
-    <t>E(x_it c_i) = 0</t>
-  </si>
-  <si>
-    <t>Missing time periods for some units</t>
-  </si>
-  <si>
-    <t>E(x_it u_it) = 0</t>
-  </si>
-  <si>
-    <t>To reduce standard errors</t>
-  </si>
-  <si>
-    <t>E(ui) = 0</t>
-  </si>
-  <si>
-    <t>Upward biased</t>
-  </si>
-  <si>
-    <t>Cov(xi, qi) = 0</t>
-  </si>
-  <si>
-    <t>It decomposes qi into a part explained by xi</t>
-  </si>
-  <si>
-    <t>Biased downwards</t>
-  </si>
-  <si>
-    <t>Use panel data and fixed effects</t>
-  </si>
-  <si>
-    <t>Efficiency only</t>
-  </si>
-  <si>
-    <t>Ability positively correlated with education and wages</t>
-  </si>
-  <si>
-    <t>β + γ δ</t>
-  </si>
-  <si>
-    <t>Fixed effects</t>
-  </si>
-  <si>
-    <t>Common trend</t>
-  </si>
-  <si>
-    <t>(Treated after – Treated before) – (Control after – Control before)</t>
-  </si>
-  <si>
-    <t>y = α + δ After*Treat + u</t>
-  </si>
-  <si>
-    <t>Change in treated group</t>
-  </si>
-  <si>
-    <t>When treatment timing varies</t>
-  </si>
-  <si>
-    <t>One group</t>
-  </si>
-  <si>
-    <t>Reduces standard errors</t>
-  </si>
-  <si>
-    <t>Delta method</t>
-  </si>
-  <si>
-    <t>Time-constant unobservables</t>
-  </si>
-  <si>
-    <t>Biased</t>
-  </si>
-  <si>
-    <t>Only time-series</t>
-  </si>
-  <si>
-    <t>c_i + u_it</t>
-  </si>
-  <si>
-    <t>Time-invariant omitted variables</t>
-  </si>
-  <si>
-    <t>It is binary</t>
-  </si>
-  <si>
-    <t>E(x_it u_it)=0</t>
-  </si>
-  <si>
-    <t>Random effects</t>
-  </si>
-  <si>
-    <t>Different sample sizes</t>
-  </si>
-  <si>
-    <t>Because otherwise we cannot estimate its effect</t>
-  </si>
-  <si>
-    <t>E(xi^2) != 0</t>
-  </si>
-  <si>
-    <t>Downward biased</t>
-  </si>
-  <si>
-    <t>Var(ui) = 0</t>
-  </si>
-  <si>
-    <t>It reduces multicollinearity</t>
-  </si>
-  <si>
-    <t>Use differences-in-differences</t>
-  </si>
-  <si>
-    <t>Both consistency and variance</t>
-  </si>
-  <si>
-    <t>Education has no true effect</t>
-  </si>
-  <si>
-    <t>δ</t>
-  </si>
-  <si>
-    <t>Instrumental variables</t>
-  </si>
-  <si>
-    <t>No heteroskedasticity</t>
-  </si>
-  <si>
-    <t>Difference in treated group only</t>
-  </si>
-  <si>
-    <t>y = α + β After + γ Treat + δ After*Treat + u</t>
-  </si>
-  <si>
-    <t>The DiD estimate</t>
-  </si>
-  <si>
-    <t>When common trend assumption fails</t>
-  </si>
-  <si>
-    <t>Repeated cross-sections</t>
-  </si>
-  <si>
-    <t>Eliminates omitted variable bias</t>
-  </si>
-  <si>
-    <t>Linear regression with interaction</t>
-  </si>
-  <si>
-    <t>Measurement error</t>
-  </si>
-  <si>
-    <t>Unbiased but inefficient</t>
-  </si>
-  <si>
-    <t>Repeated observations on the same units</t>
-  </si>
-  <si>
-    <t>x_it</t>
-  </si>
-  <si>
-    <t>It is time-invariant</t>
-  </si>
-  <si>
-    <t>Different variables across time</t>
-  </si>
-  <si>
-    <t>To remove measurement error</t>
-  </si>
-  <si>
-    <t>E(ui^2) &lt; ∞</t>
-  </si>
-  <si>
-    <t>Exactly zero</t>
-  </si>
-  <si>
-    <t>Both A and B</t>
-  </si>
-  <si>
-    <t>It ensures E(ui)=0</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Reduce the sample size</t>
-  </si>
-  <si>
-    <t>Only variance</t>
-  </si>
-  <si>
-    <t>OLS is inefficient</t>
-  </si>
-  <si>
-    <t>γ</t>
-  </si>
-  <si>
-    <t>Multicollinearity tests</t>
-  </si>
-  <si>
-    <t>Balanced panel</t>
-  </si>
-  <si>
-    <t>Difference in control group only</t>
-  </si>
-  <si>
-    <t>y = α + β x + u</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>When we use a linear model</t>
-  </si>
-  <si>
-    <t>Only balanced panels</t>
-  </si>
-  <si>
-    <t>Improves precision</t>
-  </si>
-  <si>
-    <t>Manual DiD table</t>
-  </si>
-  <si>
-    <t>Multicollinearity</t>
-  </si>
-  <si>
-    <t>Insignificant</t>
-  </si>
-  <si>
-    <t>A balanced dataset</t>
-  </si>
-  <si>
-    <t>ε_i</t>
-  </si>
-  <si>
-    <t>Serial correlation</t>
-  </si>
-  <si>
-    <t>It is measured with error</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>Var(c_i)=0</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Different outcomes</t>
-  </si>
-  <si>
-    <t>Var(c_i) = 0</t>
-  </si>
-  <si>
-    <t>To estimate c_i</t>
-  </si>
-  <si>
-    <t>Omitting a relevant variable correlated with xi violates exogeneity E(xi ui)=0.</t>
-  </si>
-  <si>
-    <t>Positive correlation with the omitted variable and positive γ leads to an upward bias.</t>
-  </si>
-  <si>
-    <t>Either qi has no effect on y or is uncorrelated with xi.</t>
-  </si>
-  <si>
-    <t>Helps express omitted variable bias in terms of δ.</t>
-  </si>
-  <si>
-    <t>Positive correlation but negative γ makes the bias negative.</t>
-  </si>
-  <si>
-    <t>Sample size reduction does not fix bias.</t>
-  </si>
-  <si>
-    <t>OLS remains unbiased only when E(xi ui) = 0; otherwise inconsistent.</t>
-  </si>
-  <si>
-    <t>Ability is positively correlated with both education and wage, inflating the coefficient.</t>
-  </si>
-  <si>
-    <t>The bias term equals γ δ.</t>
-  </si>
-  <si>
-    <t>Multicollinearity is unrelated to omitted variable bias.</t>
-  </si>
-  <si>
-    <t>Treated and control groups must follow the same trend in absence of treatment.</t>
-  </si>
-  <si>
-    <t>Subtract the control group's change to isolate treatment effect.</t>
-  </si>
-  <si>
-    <t>DiD uses interaction term between After and Treat.</t>
-  </si>
-  <si>
-    <t>δ captures the extra change for the treated group beyond the control group.</t>
-  </si>
-  <si>
-    <t>Violation of the common trend invalidates DiD.</t>
-  </si>
-  <si>
-    <t>DiD does not require panel data; repeated cross-sections work.</t>
-  </si>
-  <si>
-    <t>Differential effects violate the common trend assumption.</t>
-  </si>
-  <si>
-    <t>Regression form allows robust standard error estimation.</t>
-  </si>
-  <si>
-    <t>Time-constant unobservables drop out in first differences.</t>
-  </si>
-  <si>
-    <t>Pre-trend difference violates common trend.</t>
-  </si>
-  <si>
-    <t>Panel data tracks units over time.</t>
-  </si>
-  <si>
-    <t>Panel error decomposes into time-constant (c_i) and time-varying components.</t>
-  </si>
-  <si>
-    <t>FE removes time-constant factors by differencing.</t>
-  </si>
-  <si>
-    <t>FE eliminates all time-invariant variables.</t>
-  </si>
-  <si>
-    <t>FE exploits changes within individuals over time.</t>
-  </si>
-  <si>
-    <t>RE assumes independence between regressors and time-invariant effects.</t>
-  </si>
-  <si>
-    <t>FE allows correlation between x_it and c_i.</t>
-  </si>
-  <si>
-    <t>Unbalanced means Ti differs across units.</t>
-  </si>
-  <si>
-    <t>We need exogeneity of x_it with respect to u_it.</t>
-  </si>
-  <si>
-    <t>FE removes between-unit variation; if x doesn’t vary within units, its effect is not identified.</t>
+    <t>Which of the following best defines a random variable?</t>
+  </si>
+  <si>
+    <t>A variable that is fixed but unknown.</t>
+  </si>
+  <si>
+    <t>A variable whose value is determined by chance.</t>
+  </si>
+  <si>
+    <t>A variable that always follows a normal distribution.</t>
+  </si>
+  <si>
+    <t>A variable that cannot take on continuous values.</t>
+  </si>
+  <si>
+    <t>A random variable's realization is uncertain before observation; it can be discrete or continuous.</t>
+  </si>
+  <si>
+    <t>The probability mass function (pmf) of a discrete random variable must:</t>
+  </si>
+  <si>
+    <t>Sum to infinity.</t>
+  </si>
+  <si>
+    <t>Sum to 1 over all possible values.</t>
+  </si>
+  <si>
+    <t>Equal the cumulative distribution function (cdf).</t>
+  </si>
+  <si>
+    <t>Be constant for each value.</t>
+  </si>
+  <si>
+    <t>Probabilities of all possible discrete outcomes must add up to 1.</t>
+  </si>
+  <si>
+    <t>For a continuous random variable, the probability of taking any specific value is:</t>
+  </si>
+  <si>
+    <t>Zero.</t>
+  </si>
+  <si>
+    <t>One.</t>
+  </si>
+  <si>
+    <t>Equal to the pdf at that point.</t>
+  </si>
+  <si>
+    <t>Equal to the area under the cdf.</t>
+  </si>
+  <si>
+    <t>Continuous random variables have infinite possible values, so the probability at a single point is 0.</t>
+  </si>
+  <si>
+    <t>The cdf of a random variable Z is defined as:</t>
+  </si>
+  <si>
+    <t>F(z) = P(Z = z)</t>
+  </si>
+  <si>
+    <t>F(z) = P(Z &gt; z)</t>
+  </si>
+  <si>
+    <t>F(z) = P(Z &lt; z)</t>
+  </si>
+  <si>
+    <t>F(z) = P(Z ≥ z)</t>
+  </si>
+  <si>
+    <t>By definition, the cumulative distribution function gives the probability that the variable is less than or equal to z.</t>
+  </si>
+  <si>
+    <t>If f(z) is the pdf of a continuous variable, then P(a &lt; Z &lt; b) = :</t>
+  </si>
+  <si>
+    <t>f(b) - f(a)</t>
+  </si>
+  <si>
+    <t>F(b) - F(a)</t>
+  </si>
+  <si>
+    <t>f(a) + f(b)</t>
+  </si>
+  <si>
+    <t>f(a) × f(b)</t>
+  </si>
+  <si>
+    <t>The integral of the pdf between a and b is equal to the difference in the cdf at the endpoints.</t>
+  </si>
+  <si>
+    <t>The expected value is best described as:</t>
+  </si>
+  <si>
+    <t>The median of the distribution.</t>
+  </si>
+  <si>
+    <t>The mode of the distribution.</t>
+  </si>
+  <si>
+    <t>The long-run average outcome.</t>
+  </si>
+  <si>
+    <t>The square root of the variance.</t>
+  </si>
+  <si>
+    <t>Expectation represents the average if the process is repeated infinitely.</t>
+  </si>
+  <si>
+    <t>Which formula correctly expresses the variance of a random variable Y?</t>
+  </si>
+  <si>
+    <t>$E(Y) - E(Y^2)$</t>
+  </si>
+  <si>
+    <t>$E(Y^2) - [E(Y)]^2$</t>
+  </si>
+  <si>
+    <t>$[E(Y)]^2 - E(Y^2)$</t>
+  </si>
+  <si>
+    <t>$E(Y^2) / E(Y)$</t>
+  </si>
+  <si>
+    <t>Variance is the expected squared deviation from the mean, which simplifies to $E(Y^2) - [E(Y)]^2$.</t>
+  </si>
+  <si>
+    <t>Which of the following is true about the standard deviation?</t>
+  </si>
+  <si>
+    <t>It is always larger than the variance.</t>
+  </si>
+  <si>
+    <t>It is the square of the variance.</t>
+  </si>
+  <si>
+    <t>It is the square root of the variance.</t>
+  </si>
+  <si>
+    <t>It does not depend on the expected value.</t>
+  </si>
+  <si>
+    <t>By definition, SD = sqrt(Var).</t>
+  </si>
+  <si>
+    <t>Population parameters like the expected value are typically:</t>
+  </si>
+  <si>
+    <t>Known exactly from the sample.</t>
+  </si>
+  <si>
+    <t>Estimated using sample statistics.</t>
+  </si>
+  <si>
+    <t>Always equal to sample means.</t>
+  </si>
+  <si>
+    <t>Observed directly from the population.</t>
+  </si>
+  <si>
+    <t>Population values are usually unobserved; we estimate them from samples.</t>
+  </si>
+  <si>
+    <t>Which of the following is true about i.i.d. sampling?</t>
+  </si>
+  <si>
+    <t>Observations can be dependent but identically distributed.</t>
+  </si>
+  <si>
+    <t>Observations must be independent and identically distributed.</t>
+  </si>
+  <si>
+    <t>Observations must come from different populations.</t>
+  </si>
+  <si>
+    <t>Observations are deterministic once the first draw is observed.</t>
+  </si>
+  <si>
+    <t>i.i.d. stands for independent and identically distributed sampling.</t>
+  </si>
+  <si>
+    <t>The sample mean ȳ is:</t>
+  </si>
+  <si>
+    <t>Always equal to the population mean.</t>
+  </si>
+  <si>
+    <t>A random variable with its own distribution.</t>
+  </si>
+  <si>
+    <t>A deterministic function of the population variance.</t>
+  </si>
+  <si>
+    <t>Unaffected by random sampling variation.</t>
+  </si>
+  <si>
+    <t>Because it depends on random draws, ȳ is itself random.</t>
+  </si>
+  <si>
+    <t>The expected value of the sample mean is equal to the population mean because:</t>
+  </si>
+  <si>
+    <t>Sampling bias cancels out.</t>
+  </si>
+  <si>
+    <t>$E(\bar{y}) = \mu by the linearity of expectation.$</t>
+  </si>
+  <si>
+    <t>The variance of the sample mean goes to zero.</t>
+  </si>
+  <si>
+    <t>The sample mean is always consistent.</t>
+  </si>
+  <si>
+    <t>$E(\bar{y}) = \mu$ by the linearity of expectation.</t>
+  </si>
+  <si>
+    <t>The variance of the sample mean ȳ is:</t>
+  </si>
+  <si>
+    <t>$\sigma^2$</t>
+  </si>
+  <si>
+    <t>$\sigma^2/n$</t>
+  </si>
+  <si>
+    <t>$n\sigma^2$</t>
+  </si>
+  <si>
+    <t>$\sigma/n$</t>
+  </si>
+  <si>
+    <t>Variance decreases with sample size: $Var(\bar{y}) = \sigma^2 / n$.</t>
+  </si>
+  <si>
+    <t>Why is independence of observations important for the variance of ȳ?</t>
+  </si>
+  <si>
+    <t>It allows covariances to drop out of the variance formula.</t>
+  </si>
+  <si>
+    <t>It ensures the sample mean equals the population mean.</t>
+  </si>
+  <si>
+    <t>It guarantees normality.</t>
+  </si>
+  <si>
+    <t>It increases the standard error.</t>
+  </si>
+  <si>
+    <t>Independence implies zero covariance, simplifying the variance calculation.</t>
+  </si>
+  <si>
+    <t>The standard error of the sample mean decreases as:</t>
+  </si>
+  <si>
+    <t>Variance decreases.</t>
+  </si>
+  <si>
+    <t>Sample size increases.</t>
+  </si>
+  <si>
+    <t>Population mean decreases.</t>
+  </si>
+  <si>
+    <t>A and B.</t>
+  </si>
+  <si>
+    <t>$SE = \sigma/\sqrt{n}$; lower variance and higher $n$ reduce SE.</t>
+  </si>
+  <si>
+    <t>The Law of Large Numbers (LLN) implies:</t>
+  </si>
+  <si>
+    <t>Sample mean will equal population mean for small n.</t>
+  </si>
+  <si>
+    <t>Sample mean converges in probability to population mean as n → ∞.</t>
+  </si>
+  <si>
+    <t>Sample mean is normally distributed for any n.</t>
+  </si>
+  <si>
+    <t>Sample variance equals population variance for large n.</t>
+  </si>
+  <si>
+    <t>LLN guarantees $\bar{y} \xrightarrow{p} \mu$ as $n \to \infty$.</t>
+  </si>
+  <si>
+    <t>A consistent estimator is:</t>
+  </si>
+  <si>
+    <t>Always unbiased.</t>
+  </si>
+  <si>
+    <t>Guaranteed to have small variance in small samples.</t>
+  </si>
+  <si>
+    <t>Converges to the true parameter as sample size increases.</t>
+  </si>
+  <si>
+    <t>Does not depend on sample size.</t>
+  </si>
+  <si>
+    <t>Consistency refers to convergence in probability.</t>
+  </si>
+  <si>
+    <t>The Central Limit Theorem (CLT) is useful because it:</t>
+  </si>
+  <si>
+    <t>Ensures the population mean is normally distributed.</t>
+  </si>
+  <si>
+    <t>Ensures the sample mean is normally distributed for large n.</t>
+  </si>
+  <si>
+    <t>Guarantees unbiasedness.</t>
+  </si>
+  <si>
+    <t>Eliminates variance from the sample mean.</t>
+  </si>
+  <si>
+    <t>CLT approximates ȳ as normal regardless of the underlying distribution.</t>
+  </si>
+  <si>
+    <t>Under the CLT, the standardized sample mean converges in distribution to:</t>
+  </si>
+  <si>
+    <t>$N(0,1)$</t>
+  </si>
+  <si>
+    <t>$N(\mu, \sigma^2)$</t>
+  </si>
+  <si>
+    <t>t(n-1)</t>
+  </si>
+  <si>
+    <t>$χ^2(n)$</t>
+  </si>
+  <si>
+    <t>$(\bar{y}-\mu)/(\sigma/\sqrt{n}) \xrightarrow{d} N(0,1)$.</t>
+  </si>
+  <si>
+    <t>Why does the CLT require finite variance?</t>
+  </si>
+  <si>
+    <t>Infinite variance makes the sample mean unbiased.</t>
+  </si>
+  <si>
+    <t>Infinite variance prevents convergence to normality.</t>
+  </si>
+  <si>
+    <t>Infinite variance reduces standard error.</t>
+  </si>
+  <si>
+    <t>It does not; variance can be infinite.</t>
+  </si>
+  <si>
+    <t>CLT assumptions include finite variance to ensure the distribution stabilizes.</t>
+  </si>
+  <si>
+    <t>The null hypothesis typically states that:</t>
+  </si>
+  <si>
+    <t>The sample mean equals the sample variance.</t>
+  </si>
+  <si>
+    <t>A parameter equals a specific value.</t>
+  </si>
+  <si>
+    <t>The sample mean is different from the population mean.</t>
+  </si>
+  <si>
+    <t>Variance is zero.</t>
+  </si>
+  <si>
+    <t>Hypotheses are usually about parameters equaling specified values.</t>
+  </si>
+  <si>
+    <t>$(\bar{y} - \mu0)/\sigma$</t>
+  </si>
+  <si>
+    <t>$(\bar{y} - \mu0)/(\sigmâ/√n)$</t>
+  </si>
+  <si>
+    <t>$(\mu - \mu0)/(\sigma/√n)$</t>
+  </si>
+  <si>
+    <t>$(\bar{y} - \mu)/\sigma$</t>
+  </si>
+  <si>
+    <t>We estimate the population standard deviation with $\hat{\sigma}$.</t>
+  </si>
+  <si>
+    <t>If the absolute t-statistic exceeds 1.96, we reject H0 at the:</t>
+  </si>
+  <si>
+    <t>10% level</t>
+  </si>
+  <si>
+    <t>5% level</t>
+  </si>
+  <si>
+    <t>1% level</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>1.96 corresponds to a 5% two-tailed significance level in $N(0,1)$.</t>
+  </si>
+  <si>
+    <t>$Replacing \sigma by \sigmâ in the t-statistic introduces:$</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Consistency issues</t>
+  </si>
+  <si>
+    <t>Sampling variability in the standard error</t>
+  </si>
+  <si>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>Using $\hat{\sigma}$ adds variability but remains consistent for large samples.</t>
+  </si>
+  <si>
+    <t>Which statement about rejecting H0 is true?</t>
+  </si>
+  <si>
+    <t>It proves H1 is true.</t>
+  </si>
+  <si>
+    <t>It means H0 is false with probability 1.</t>
+  </si>
+  <si>
+    <t>The observed sample is unlikely under H0.</t>
+  </si>
+  <si>
+    <t>The sample mean equals the population mean.</t>
+  </si>
+  <si>
+    <t>Rejection means data are inconsistent with H0 at the chosen significance level.</t>
+  </si>
+  <si>
+    <t>As n → ∞, the standard error of ȳ:</t>
+  </si>
+  <si>
+    <t>Increases to infinity.</t>
+  </si>
+  <si>
+    <t>Remains constant.</t>
+  </si>
+  <si>
+    <t>Decreases to zero.</t>
+  </si>
+  <si>
+    <t>Becomes equal to the variance.</t>
+  </si>
+  <si>
+    <t>$SE = \sigma/\sqrt{n}$; increasing $n$ shrinks SE.</t>
+  </si>
+  <si>
+    <t>The difference between finite-sample and asymptotic distributions is:</t>
+  </si>
+  <si>
+    <t>Finite-sample applies for large n.</t>
+  </si>
+  <si>
+    <t>Asymptotic results are exact for small n.</t>
+  </si>
+  <si>
+    <t>Finite-sample distributions hold for any n; asymptotic ones are approximations for large n.</t>
+  </si>
+  <si>
+    <t>Both are always normal.</t>
+  </si>
+  <si>
+    <t>Asymptotic results approximate the distribution as n → ∞.</t>
+  </si>
+  <si>
+    <t>The main purpose of the standardization in CLT is to:</t>
+  </si>
+  <si>
+    <t>Remove dependence.</t>
+  </si>
+  <si>
+    <t>$Rescale the mean to follow N(0,1).$</t>
+  </si>
+  <si>
+    <t>Reduce sample size.</t>
+  </si>
+  <si>
+    <t>Eliminate bias.</t>
+  </si>
+  <si>
+    <t>Standardization allows convergence to the standard normal distribution.</t>
+  </si>
+  <si>
+    <t>If the p-value is 0.03 and α = 0.05:</t>
+  </si>
+  <si>
+    <t>Reject H0 at 5%.</t>
+  </si>
+  <si>
+    <t>Fail to reject H0 at 5%.</t>
+  </si>
+  <si>
+    <t>Reject H0 at 1%.</t>
+  </si>
+  <si>
+    <t>Fail to reject H0 at 1%.</t>
+  </si>
+  <si>
+    <t>p-value &lt; α leads to rejecting the null at that significance level.</t>
+  </si>
+  <si>
+    <t>Which statement about type I error is correct?</t>
+  </si>
+  <si>
+    <t>Failing to reject a false null hypothesis.</t>
+  </si>
+  <si>
+    <t>Rejecting a true null hypothesis.</t>
+  </si>
+  <si>
+    <t>Depends on sample variance.</t>
+  </si>
+  <si>
+    <t>Only occurs in large samples.</t>
+  </si>
+  <si>
+    <t>Type I error is the probability of wrongly rejecting a true null hypothesis.</t>
+  </si>
+  <si>
+    <t>The t-statistic for testing $H0: \mu = \mu0$ is:</t>
   </si>
 </sst>
 </file>
@@ -571,10 +598,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -635,9 +660,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -675,7 +700,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -709,7 +734,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -744,10 +768,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,12 +947,13 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -960,692 +984,692 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>129</v>
-      </c>
       <c r="F13" t="s">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>